--- a/projects/__data__/banner_data.xlsx
+++ b/projects/__data__/banner_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f702fcbf27982aa9/GitHub/Genshin_Impact/Character Reruns/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f702fcbf27982aa9/GitHub/Genshin_Impact/projects/__data__/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{A3735326-0256-420F-824F-B785B76E1A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95FEBDD3-E4C9-40A5-84EB-3C4BBCAD185D}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{A3735326-0256-420F-824F-B785B76E1A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2036C4B4-3792-4FBF-B539-FA314477527E}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="96" windowWidth="19764" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="19764" windowHeight="11172" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Characters" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="114">
   <si>
     <t>Weapon</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>2.7a</t>
+  </si>
+  <si>
+    <t>Kuki Shinobu</t>
+  </si>
+  <si>
+    <t>2.7b</t>
   </si>
 </sst>
 </file>
@@ -527,7 +533,75 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="80">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1416,11 +1490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992A72BA-4C24-491A-A28C-52A3C42F082E}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2883,6 +2957,35 @@
         <v>56</v>
       </c>
     </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="16">
+        <v>44733</v>
+      </c>
+      <c r="D51" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" t="s">
+        <v>53</v>
+      </c>
+      <c r="I51" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I48" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I49">
@@ -2898,9 +3001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04772D9E-D239-4027-8296-85AEEAA95E9A}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3606,11 +3709,11 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
-        <f t="shared" ref="A29:A60" si="0">B30</f>
+        <f t="shared" ref="A31:A60" si="0">B30</f>
         <v>44712</v>
       </c>
       <c r="B31" s="7">
-        <f t="shared" ref="B29:B60" si="1">A31+21</f>
+        <f t="shared" ref="B31:B60" si="1">A31+21</f>
         <v>44733</v>
       </c>
       <c r="C31" s="8">
@@ -3641,6 +3744,18 @@
       <c r="C32" s="8">
         <v>2.7</v>
       </c>
+      <c r="D32" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
@@ -3924,291 +4039,315 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3:F19">
-    <cfRule type="expression" dxfId="71" priority="63">
+    <cfRule type="expression" dxfId="79" priority="69">
       <formula>AND(F3=0, NOT(F3=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="64">
+    <cfRule type="expression" dxfId="78" priority="70">
       <formula>AND(F3="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="69" priority="61">
+    <cfRule type="expression" dxfId="77" priority="67">
       <formula>AND(G20=0, NOT(G20=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="62">
+    <cfRule type="expression" dxfId="76" priority="68">
       <formula>AND(G20="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="expression" dxfId="67" priority="59">
+    <cfRule type="expression" dxfId="75" priority="65">
       <formula>AND(G2=0, NOT(G2=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="60">
+    <cfRule type="expression" dxfId="74" priority="66">
       <formula>AND(G2="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="65" priority="57">
+    <cfRule type="expression" dxfId="73" priority="63">
       <formula>AND(F21=0, NOT(F21=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="58">
+    <cfRule type="expression" dxfId="72" priority="64">
       <formula>AND(F21="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="63" priority="55">
+    <cfRule type="expression" dxfId="71" priority="61">
       <formula>AND(E22=0, NOT(E22=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="56">
+    <cfRule type="expression" dxfId="70" priority="62">
       <formula>AND(E22="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E18 E20:E21">
-    <cfRule type="expression" dxfId="61" priority="65">
+    <cfRule type="expression" dxfId="69" priority="71">
       <formula>AND(E2=0, NOT(E2=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="66">
+    <cfRule type="expression" dxfId="68" priority="72">
       <formula>AND(E2="", NOT(#REF!=""), NOT(G$1=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G18 G21:G22">
-    <cfRule type="expression" dxfId="59" priority="67">
+    <cfRule type="expression" dxfId="67" priority="73">
       <formula>AND(G3=0, NOT(G3=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="68">
+    <cfRule type="expression" dxfId="66" priority="74">
       <formula>AND(G3="", NOT(#REF!=""), NOT(F$1=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="57" priority="69">
+    <cfRule type="expression" dxfId="65" priority="75">
       <formula>AND(G19=0, NOT(G19=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="70">
+    <cfRule type="expression" dxfId="64" priority="76">
       <formula>AND(G19="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="55" priority="53">
+    <cfRule type="expression" dxfId="63" priority="59">
       <formula>AND(E23=0, NOT(E23=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="54">
+    <cfRule type="expression" dxfId="62" priority="60">
       <formula>AND(E23="", NOT(#REF!=""), NOT(G$1=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="expression" dxfId="53" priority="51">
+    <cfRule type="expression" dxfId="61" priority="57">
       <formula>AND(F23=0, NOT(F23=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="60" priority="58">
       <formula>AND(F23="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="51" priority="49">
+    <cfRule type="expression" dxfId="59" priority="55">
       <formula>AND(G23=0, NOT(G23=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="50">
+    <cfRule type="expression" dxfId="58" priority="56">
       <formula>AND(G23="", NOT(#REF!=""), NOT(F$1=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="49" priority="47">
+    <cfRule type="expression" dxfId="57" priority="53">
       <formula>AND(E24=0, NOT(E24=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="56" priority="54">
       <formula>AND(E24="", NOT(#REF!=""), NOT(G$1=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="47" priority="45">
+    <cfRule type="expression" dxfId="55" priority="51">
       <formula>AND(F24=0, NOT(F24=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="46">
+    <cfRule type="expression" dxfId="54" priority="52">
       <formula>AND(F24="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="45" priority="43">
+    <cfRule type="expression" dxfId="53" priority="49">
       <formula>AND(G24=0, NOT(G24=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="44">
+    <cfRule type="expression" dxfId="52" priority="50">
       <formula>AND(G24="", NOT(#REF!=""), NOT(F$1=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="43" priority="71">
+    <cfRule type="expression" dxfId="51" priority="77">
       <formula>AND(E19=0, NOT(E19=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="72">
+    <cfRule type="expression" dxfId="50" priority="78">
       <formula>AND(E19="", NOT(#REF!=""), NOT(D$1=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="49" priority="47">
       <formula>AND(E25=0, NOT(E25=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
+    <cfRule type="expression" dxfId="48" priority="48">
       <formula>AND(E25="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="39" priority="39">
+    <cfRule type="expression" dxfId="47" priority="45">
       <formula>AND(F25=0, NOT(F25=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="40">
+    <cfRule type="expression" dxfId="46" priority="46">
       <formula>AND(F25="", NOT(#REF!=""), NOT(E$1=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="37" priority="37">
+    <cfRule type="expression" dxfId="45" priority="43">
       <formula>AND(G25=0, NOT(G25=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38">
+    <cfRule type="expression" dxfId="44" priority="44">
       <formula>AND(G25="", NOT(#REF!=""), NOT(F$1=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="43" priority="37">
       <formula>AND(F26=0, NOT(F26=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="32">
+    <cfRule type="expression" dxfId="42" priority="38">
       <formula>AND(F26="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="41" priority="39">
       <formula>AND(E26=0, NOT(E26=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="40" priority="40">
       <formula>AND(E26="", NOT(#REF!=""), NOT(G$1=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>AND(G26=0, NOT(G26=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="36">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>AND(G26="", NOT(#REF!=""), NOT(F$1=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>AND(E27=0, NOT(E27=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>AND(E27="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27 F20 F2 F22">
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" dxfId="35" priority="33">
       <formula>AND(F2=0, NOT(F2=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="34" priority="34">
       <formula>AND(F2="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="33" priority="31">
       <formula>AND(G27=0, NOT(G27=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="32" priority="32">
       <formula>AND(G27="", NOT(#REF!=""), NOT(H$1=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="31" priority="29">
       <formula>AND(E28=0, NOT(E28=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>AND(E28="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="29" priority="27">
       <formula>AND(F28=0, NOT(F28=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>AND(F28="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="27" priority="25">
       <formula>AND(G28=0, NOT(G28=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="26" priority="26">
       <formula>AND(G28="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="25" priority="23">
       <formula>AND(E29=0, NOT(E29=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>AND(E29="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="23" priority="21">
       <formula>AND(F29=0, NOT(F29=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>AND(F29="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>AND(G29=0, NOT(G29=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>AND(G29="", NOT(#REF!=""), NOT(F$1=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>AND(G30=0, NOT(G30=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>AND(G30="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>AND(E30=0, NOT(E30=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>AND(E30="", NOT(#REF!=""), NOT(G$1=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>AND(F30=0, NOT(F30=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>AND(F30="", NOT(#REF!=""), NOT(E$1=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>AND(E31=0, NOT(E31=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>AND(E31="", NOT(#REF!=""), NOT(G$1=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>AND(F31=0, NOT(F31=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>AND(F31="", NOT(#REF!=""), NOT(#REF!=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>AND(G31=0, NOT(G31=""))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>AND(G31="", NOT(#REF!=""), NOT(F$1=""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>AND(E32=0, NOT(E32=""))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(E32="", NOT(#REF!=""), NOT(#REF!=""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>AND(F32=0, NOT(F32=""))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(F32="", NOT(#REF!=""), NOT(E$1=""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(G31=0, NOT(G31=""))</formula>
+      <formula>AND(G32=0, NOT(G32=""))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(G31="", NOT(#REF!=""), NOT(F$1=""))</formula>
+      <formula>AND(G32="", NOT(#REF!=""), NOT(F$1=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
